--- a/code_outputs/mid_excel/250717.xlsx
+++ b/code_outputs/mid_excel/250717.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="237">
   <si>
     <t>중분류코드</t>
   </si>
@@ -352,6 +352,9 @@
     <t>8801121771402</t>
   </si>
   <si>
+    <t>8801121771396</t>
+  </si>
+  <si>
     <t>8808024034085</t>
   </si>
   <si>
@@ -602,6 +605,9 @@
   </si>
   <si>
     <t>매일)바리스타바닐라325ml</t>
+  </si>
+  <si>
+    <t>매일)바리스타쇼콜라325ml</t>
   </si>
   <si>
     <t>브리티시)블랙아메P500ml</t>
@@ -1076,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1122,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1151,7 +1157,7 @@
         <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1180,7 +1186,7 @@
         <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1209,7 +1215,7 @@
         <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1238,7 +1244,7 @@
         <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1267,7 +1273,7 @@
         <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1296,7 +1302,7 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1325,7 +1331,7 @@
         <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1354,7 +1360,7 @@
         <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1383,7 +1389,7 @@
         <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1412,7 +1418,7 @@
         <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1441,7 +1447,7 @@
         <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1470,7 +1476,7 @@
         <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1499,7 +1505,7 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1528,7 +1534,7 @@
         <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1557,7 +1563,7 @@
         <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1586,7 +1592,7 @@
         <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1615,7 +1621,7 @@
         <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1644,7 +1650,7 @@
         <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1673,7 +1679,7 @@
         <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1702,7 +1708,7 @@
         <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1731,7 +1737,7 @@
         <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1760,7 +1766,7 @@
         <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1789,7 +1795,7 @@
         <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1818,7 +1824,7 @@
         <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1847,7 +1853,7 @@
         <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1876,7 +1882,7 @@
         <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1905,7 +1911,7 @@
         <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1934,7 +1940,7 @@
         <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1963,7 +1969,7 @@
         <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1992,7 +1998,7 @@
         <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2021,7 +2027,7 @@
         <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -2050,7 +2056,7 @@
         <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2079,7 +2085,7 @@
         <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2108,7 +2114,7 @@
         <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2137,7 +2143,7 @@
         <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2166,7 +2172,7 @@
         <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2195,7 +2201,7 @@
         <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2224,7 +2230,7 @@
         <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -2253,7 +2259,7 @@
         <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -2282,7 +2288,7 @@
         <v>107</v>
       </c>
       <c r="D42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2311,7 +2317,7 @@
         <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2340,7 +2346,7 @@
         <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2369,7 +2375,7 @@
         <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2398,10 +2404,10 @@
         <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2413,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2427,7 +2433,7 @@
         <v>112</v>
       </c>
       <c r="D47" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2442,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2456,39 +2462,39 @@
         <v>113</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>4</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
         <v>114</v>
       </c>
       <c r="D49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2500,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2514,10 +2520,10 @@
         <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2529,24 +2535,24 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
         <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2558,24 +2564,24 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
         <v>117</v>
       </c>
       <c r="D52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2587,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2601,7 +2607,7 @@
         <v>118</v>
       </c>
       <c r="D53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2616,27 +2622,27 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
         <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2645,27 +2651,27 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
         <v>120</v>
       </c>
       <c r="D55" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2674,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2688,10 +2694,10 @@
         <v>121</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2703,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2717,13 +2723,13 @@
         <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2732,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2746,13 +2752,13 @@
         <v>123</v>
       </c>
       <c r="D58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2761,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2775,13 +2781,13 @@
         <v>124</v>
       </c>
       <c r="D59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2790,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2804,13 +2810,13 @@
         <v>125</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2819,27 +2825,27 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
         <v>126</v>
       </c>
       <c r="D61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2848,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2862,10 +2868,10 @@
         <v>127</v>
       </c>
       <c r="D62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2877,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2891,71 +2897,71 @@
         <v>128</v>
       </c>
       <c r="D63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
         <v>129</v>
       </c>
       <c r="D64" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s">
         <v>130</v>
       </c>
       <c r="D65" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2964,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2978,10 +2984,10 @@
         <v>131</v>
       </c>
       <c r="D66" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2993,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3007,10 +3013,10 @@
         <v>132</v>
       </c>
       <c r="D67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3022,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3036,7 +3042,7 @@
         <v>133</v>
       </c>
       <c r="D68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3051,21 +3057,21 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" t="s">
         <v>134</v>
       </c>
       <c r="D69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3080,21 +3086,21 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C70" t="s">
         <v>135</v>
       </c>
       <c r="D70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3109,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3123,7 +3129,7 @@
         <v>136</v>
       </c>
       <c r="D71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3143,16 +3149,16 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C72" t="s">
         <v>137</v>
       </c>
       <c r="D72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3167,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3181,13 +3187,13 @@
         <v>138</v>
       </c>
       <c r="D73" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3196,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3210,13 +3216,13 @@
         <v>139</v>
       </c>
       <c r="D74" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3225,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3239,7 +3245,7 @@
         <v>140</v>
       </c>
       <c r="D75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3254,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3268,7 +3274,7 @@
         <v>141</v>
       </c>
       <c r="D76" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3283,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3297,10 +3303,10 @@
         <v>142</v>
       </c>
       <c r="D77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3312,36 +3318,36 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C78" t="s">
         <v>143</v>
       </c>
       <c r="D78" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>11</v>
-      </c>
-      <c r="F78">
-        <v>2</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3355,14 +3361,14 @@
         <v>144</v>
       </c>
       <c r="D79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E79">
+        <v>11</v>
+      </c>
+      <c r="F79">
         <v>2</v>
       </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
       <c r="G79">
         <v>0</v>
       </c>
@@ -3370,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3384,13 +3390,13 @@
         <v>145</v>
       </c>
       <c r="D80" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E80">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3399,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3413,13 +3419,13 @@
         <v>146</v>
       </c>
       <c r="D81" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -3428,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3442,10 +3448,10 @@
         <v>147</v>
       </c>
       <c r="D82" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3457,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3471,10 +3477,10 @@
         <v>148</v>
       </c>
       <c r="D83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3486,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3500,7 +3506,7 @@
         <v>149</v>
       </c>
       <c r="D84" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3515,24 +3521,24 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C85" t="s">
         <v>150</v>
       </c>
       <c r="D85" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -3541,6 +3547,35 @@
         <v>0</v>
       </c>
       <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" t="s">
+        <v>151</v>
+      </c>
+      <c r="D86" t="s">
+        <v>236</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
         <v>0</v>
       </c>
     </row>

--- a/code_outputs/mid_excel/250717.xlsx
+++ b/code_outputs/mid_excel/250717.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="253">
   <si>
     <t>중분류코드</t>
   </si>
@@ -67,6 +67,9 @@
     <t>020</t>
   </si>
   <si>
+    <t>028</t>
+  </si>
+  <si>
     <t>032</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
     <t>캔디</t>
   </si>
   <si>
+    <t>축수산식재료</t>
+  </si>
+  <si>
     <t>면류</t>
   </si>
   <si>
@@ -250,9 +256,15 @@
     <t>8801068406832</t>
   </si>
   <si>
+    <t>8801068409215</t>
+  </si>
+  <si>
     <t>8801753112963</t>
   </si>
   <si>
+    <t>8801753108775</t>
+  </si>
+  <si>
     <t>9557062361828</t>
   </si>
   <si>
@@ -274,6 +286,9 @@
     <t>8801083333304</t>
   </si>
   <si>
+    <t>8809841062503</t>
+  </si>
+  <si>
     <t>6925425474653</t>
   </si>
   <si>
@@ -295,6 +310,9 @@
     <t>8809971930499</t>
   </si>
   <si>
+    <t>8809136851096</t>
+  </si>
+  <si>
     <t>8801043015639</t>
   </si>
   <si>
@@ -313,6 +331,9 @@
     <t>8801043015653</t>
   </si>
   <si>
+    <t>8801073210776</t>
+  </si>
+  <si>
     <t>8801007038780</t>
   </si>
   <si>
@@ -376,6 +397,12 @@
     <t>8801056230111</t>
   </si>
   <si>
+    <t>8801104950787</t>
+  </si>
+  <si>
+    <t>8801104250627</t>
+  </si>
+  <si>
     <t>8801115212713</t>
   </si>
   <si>
@@ -505,9 +532,15 @@
     <t>삼립)신선가득꿀호떡</t>
   </si>
   <si>
+    <t>삼립)찰옥수수이야기</t>
+  </si>
+  <si>
     <t>연세)메론생크림빵</t>
   </si>
   <si>
+    <t>연세)초코생크림빵</t>
+  </si>
+  <si>
     <t>HEYROO감자칩득템어니언</t>
   </si>
   <si>
@@ -529,6 +562,9 @@
     <t>켈로그)콘푸로스트컵</t>
   </si>
   <si>
+    <t>나무)워헤즈사우어밤</t>
+  </si>
+  <si>
     <t>농심)츄파춥스게코젤리</t>
   </si>
   <si>
@@ -550,6 +586,9 @@
     <t>피치)포도모양미니젤리</t>
   </si>
   <si>
+    <t>제니코)치즈파티모짜렐라</t>
+  </si>
+  <si>
     <t>농심)김치사발면</t>
   </si>
   <si>
@@ -568,6 +607,9 @@
     <t>농심)육개장사발면</t>
   </si>
   <si>
+    <t>삼양)불닭볶음면소컵</t>
+  </si>
+  <si>
     <t>CJ)햇반흑미밥210g</t>
   </si>
   <si>
@@ -629,6 +671,12 @@
   </si>
   <si>
     <t>롯데)칸타타블랙아메320ml</t>
+  </si>
+  <si>
+    <t>빙그레)요플레그릭180g</t>
+  </si>
+  <si>
+    <t>빙그레)쥬시쿨복숭아180ml</t>
   </si>
   <si>
     <t>서울)비요뜨초코링</t>
@@ -1082,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1122,13 +1170,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1151,13 +1199,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1180,13 +1228,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1209,13 +1257,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1238,13 +1286,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1267,13 +1315,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1296,13 +1344,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1325,13 +1373,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1354,13 +1402,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1383,13 +1431,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1412,13 +1460,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1438,22 +1486,22 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1462,21 +1510,21 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1491,21 +1539,21 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1520,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1528,19 +1576,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1549,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1557,13 +1605,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1578,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1586,13 +1634,13 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1607,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1615,13 +1663,13 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1636,21 +1684,21 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1665,21 +1713,21 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1694,24 +1742,24 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1731,13 +1779,13 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1752,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1760,13 +1808,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1789,16 +1837,16 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1810,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1818,13 +1866,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1839,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1847,13 +1895,13 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1868,21 +1916,21 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1897,21 +1945,21 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1926,21 +1974,21 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1955,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1963,13 +2011,13 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1984,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2013,24 +2061,24 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2042,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2050,19 +2098,19 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2071,27 +2119,27 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2100,21 +2148,21 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
         <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2129,24 +2177,24 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2158,21 +2206,21 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2187,27 +2235,27 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2216,27 +2264,27 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2245,24 +2293,24 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2274,50 +2322,50 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
         <v>23</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" t="s">
-        <v>192</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D43" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2332,21 +2380,21 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2361,24 +2409,24 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2390,21 +2438,21 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -2419,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2427,16 +2475,16 @@
         <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2448,24 +2496,24 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D48" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2477,24 +2525,24 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2506,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2514,16 +2562,16 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2535,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2543,16 +2591,16 @@
         <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D51" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2564,21 +2612,21 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D52" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -2593,24 +2641,24 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D53" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2622,24 +2670,24 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D54" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2651,27 +2699,27 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2680,21 +2728,21 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D56" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2709,21 +2757,21 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -2738,27 +2786,27 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D58" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2767,27 +2815,27 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2796,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2804,13 +2852,13 @@
         <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D60" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2825,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2833,19 +2881,19 @@
         <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D61" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2854,27 +2902,27 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
         <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D62" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2883,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2891,13 +2939,13 @@
         <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2912,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2920,45 +2968,45 @@
         <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
         <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D65" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2970,27 +3018,27 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D66" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2999,24 +3047,24 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D67" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3028,27 +3076,27 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D68" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3057,24 +3105,24 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
         <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D69" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3086,21 +3134,21 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D70" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3115,56 +3163,56 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D71" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D72" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3173,21 +3221,21 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3202,27 +3250,27 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C74" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D74" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3231,21 +3279,21 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D75" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3260,21 +3308,21 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D76" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3289,21 +3337,21 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B77" t="s">
         <v>64</v>
       </c>
       <c r="C77" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D77" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3318,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3326,16 +3374,16 @@
         <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C78" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D78" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3347,27 +3395,27 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
         <v>65</v>
       </c>
       <c r="C79" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D79" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E79">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -3376,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3384,16 +3432,16 @@
         <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D80" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3413,19 +3461,19 @@
         <v>36</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C81" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D81" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E81">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -3434,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3442,13 +3490,13 @@
         <v>36</v>
       </c>
       <c r="B82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D82" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3463,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3471,16 +3519,16 @@
         <v>36</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C83" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D83" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3492,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3500,13 +3548,13 @@
         <v>36</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C84" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D84" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3521,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3529,16 +3577,16 @@
         <v>36</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D85" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -3550,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3558,24 +3606,227 @@
         <v>37</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C86" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D86" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E86">
+        <v>11</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" t="s">
+        <v>154</v>
+      </c>
+      <c r="D87" t="s">
+        <v>246</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>37</v>
+      </c>
+      <c r="B88" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" t="s">
+        <v>155</v>
+      </c>
+      <c r="D88" t="s">
+        <v>247</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" t="s">
+        <v>156</v>
+      </c>
+      <c r="D89" t="s">
+        <v>248</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" t="s">
+        <v>157</v>
+      </c>
+      <c r="D90" t="s">
+        <v>249</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
         <v>4</v>
       </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" t="s">
+        <v>158</v>
+      </c>
+      <c r="D91" t="s">
+        <v>250</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" t="s">
+        <v>159</v>
+      </c>
+      <c r="D92" t="s">
+        <v>251</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" t="s">
+        <v>160</v>
+      </c>
+      <c r="D93" t="s">
+        <v>252</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
         <v>0</v>
       </c>
     </row>

--- a/code_outputs/mid_excel/250717.xlsx
+++ b/code_outputs/mid_excel/250717.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="325">
   <si>
     <t>중분류코드</t>
   </si>
@@ -43,6 +43,9 @@
     <t>현재고</t>
   </si>
   <si>
+    <t>001</t>
+  </si>
+  <si>
     <t>002</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>014</t>
   </si>
   <si>
+    <t>015</t>
+  </si>
+  <si>
     <t>016</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>020</t>
   </si>
   <si>
+    <t>021</t>
+  </si>
+  <si>
     <t>028</t>
   </si>
   <si>
@@ -121,6 +130,9 @@
     <t>051</t>
   </si>
   <si>
+    <t>060</t>
+  </si>
+  <si>
     <t>063</t>
   </si>
   <si>
@@ -133,6 +145,9 @@
     <t>900</t>
   </si>
   <si>
+    <t>도시락</t>
+  </si>
+  <si>
     <t>주먹밥</t>
   </si>
   <si>
@@ -148,6 +163,9 @@
     <t>디저트</t>
   </si>
   <si>
+    <t>비스켓/쿠키</t>
+  </si>
+  <si>
     <t>스낵류</t>
   </si>
   <si>
@@ -157,6 +175,9 @@
     <t>캔디</t>
   </si>
   <si>
+    <t>일반아이스크림</t>
+  </si>
+  <si>
     <t>축수산식재료</t>
   </si>
   <si>
@@ -211,6 +232,9 @@
     <t>전통주</t>
   </si>
   <si>
+    <t>홈/주방용품</t>
+  </si>
+  <si>
     <t>우천용상품</t>
   </si>
   <si>
@@ -223,15 +247,27 @@
     <t>소모품</t>
   </si>
   <si>
+    <t>8809196620090</t>
+  </si>
+  <si>
+    <t>8800271900953</t>
+  </si>
+  <si>
     <t>8800275320290</t>
   </si>
   <si>
+    <t>8801771031208</t>
+  </si>
+  <si>
     <t>8800279674641</t>
   </si>
   <si>
     <t>8800279676607</t>
   </si>
   <si>
+    <t>8800279677260</t>
+  </si>
+  <si>
     <t>8801771303336</t>
   </si>
   <si>
@@ -259,12 +295,21 @@
     <t>8801068409215</t>
   </si>
   <si>
+    <t>8801068402285</t>
+  </si>
+  <si>
     <t>8801753112963</t>
   </si>
   <si>
     <t>8801753108775</t>
   </si>
   <si>
+    <t>8801062870462</t>
+  </si>
+  <si>
+    <t>8809304881023</t>
+  </si>
+  <si>
     <t>9557062361828</t>
   </si>
   <si>
@@ -274,6 +319,15 @@
     <t>8801043036399</t>
   </si>
   <si>
+    <t>8801043036719</t>
+  </si>
+  <si>
+    <t>8801043005814</t>
+  </si>
+  <si>
+    <t>8802259022893</t>
+  </si>
+  <si>
     <t>8801117784409</t>
   </si>
   <si>
@@ -286,12 +340,24 @@
     <t>8801083333304</t>
   </si>
   <si>
+    <t>8809522040653</t>
+  </si>
+  <si>
     <t>8809841062503</t>
   </si>
   <si>
     <t>6925425474653</t>
   </si>
   <si>
+    <t>8691216099074</t>
+  </si>
+  <si>
+    <t>5012035901738</t>
+  </si>
+  <si>
+    <t>4001686323366</t>
+  </si>
+  <si>
     <t>8691216096370</t>
   </si>
   <si>
@@ -310,6 +376,18 @@
     <t>8809971930499</t>
   </si>
   <si>
+    <t>8809599361309</t>
+  </si>
+  <si>
+    <t>8809599360470</t>
+  </si>
+  <si>
+    <t>8809599361217</t>
+  </si>
+  <si>
+    <t>8809599361033</t>
+  </si>
+  <si>
     <t>8809136851096</t>
   </si>
   <si>
@@ -322,6 +400,9 @@
     <t>8801043015776</t>
   </si>
   <si>
+    <t>8801043015967</t>
+  </si>
+  <si>
     <t>8801043041447</t>
   </si>
   <si>
@@ -334,6 +415,9 @@
     <t>8801073210776</t>
   </si>
   <si>
+    <t>8801128503488</t>
+  </si>
+  <si>
     <t>8801007038780</t>
   </si>
   <si>
@@ -352,6 +436,9 @@
     <t>8801753113205</t>
   </si>
   <si>
+    <t>8806016186156</t>
+  </si>
+  <si>
     <t>8801056249212</t>
   </si>
   <si>
@@ -361,6 +448,9 @@
     <t>8801056169817</t>
   </si>
   <si>
+    <t>8808244201045</t>
+  </si>
+  <si>
     <t>8801037013702</t>
   </si>
   <si>
@@ -376,9 +466,15 @@
     <t>8801121771396</t>
   </si>
   <si>
+    <t>8809685311034</t>
+  </si>
+  <si>
     <t>8808024034085</t>
   </si>
   <si>
+    <t>8801037096392</t>
+  </si>
+  <si>
     <t>8801094512668</t>
   </si>
   <si>
@@ -388,6 +484,18 @@
     <t>8801056231927</t>
   </si>
   <si>
+    <t>8801056175955</t>
+  </si>
+  <si>
+    <t>8801056248758</t>
+  </si>
+  <si>
+    <t>8801056193010</t>
+  </si>
+  <si>
+    <t>8801094202606</t>
+  </si>
+  <si>
     <t>8801094112707</t>
   </si>
   <si>
@@ -433,6 +541,9 @@
     <t>8809404250057</t>
   </si>
   <si>
+    <t>4962656135016</t>
+  </si>
+  <si>
     <t>8801858011024</t>
   </si>
   <si>
@@ -451,6 +562,12 @@
     <t>8802521122221</t>
   </si>
   <si>
+    <t>8809065655116</t>
+  </si>
+  <si>
+    <t>2200000079947</t>
+  </si>
+  <si>
     <t>8809948343987</t>
   </si>
   <si>
@@ -466,6 +583,9 @@
     <t>8801116019397</t>
   </si>
   <si>
+    <t>0000088023465</t>
+  </si>
+  <si>
     <t>0000088022123</t>
   </si>
   <si>
@@ -499,15 +619,27 @@
     <t>2201148653150</t>
   </si>
   <si>
+    <t>도)한끼만족매콤제육1</t>
+  </si>
+  <si>
+    <t>주)3XL매콤돈까스삼각1</t>
+  </si>
+  <si>
     <t>주)계란버터간장삼각1</t>
   </si>
   <si>
+    <t>주)뉴리챔김치볶음1</t>
+  </si>
+  <si>
     <t>주)뉴전주비빔소불고기1</t>
   </si>
   <si>
     <t>김)압도적뉴참치마요1</t>
   </si>
   <si>
+    <t>김)압도적치즈불고기김밥1</t>
+  </si>
+  <si>
     <t>김)촉촉두툼계란초밥김밥2</t>
   </si>
   <si>
@@ -535,12 +667,21 @@
     <t>삼립)찰옥수수이야기</t>
   </si>
   <si>
+    <t>삼립)포켓몬로켓초코롤</t>
+  </si>
+  <si>
     <t>연세)메론생크림빵</t>
   </si>
   <si>
     <t>연세)초코생크림빵</t>
   </si>
   <si>
+    <t>롯데)빠다코코낫</t>
+  </si>
+  <si>
+    <t>위너스)프레첼체다치즈</t>
+  </si>
+  <si>
     <t>HEYROO감자칩득템어니언</t>
   </si>
   <si>
@@ -550,6 +691,15 @@
     <t>농심)알새우칩68g</t>
   </si>
   <si>
+    <t>농심)조청유과96g</t>
+  </si>
+  <si>
+    <t>농심)포테토칩60g</t>
+  </si>
+  <si>
+    <t>롯데)베지5발사믹허브50g</t>
+  </si>
+  <si>
     <t>오리온)꼬북칩콘스프맛</t>
   </si>
   <si>
@@ -562,12 +712,24 @@
     <t>켈로그)콘푸로스트컵</t>
   </si>
   <si>
+    <t>SCD)동결사우어수수깡젤리</t>
+  </si>
+  <si>
     <t>나무)워헤즈사우어밤</t>
   </si>
   <si>
     <t>농심)츄파춥스게코젤리</t>
   </si>
   <si>
+    <t>삼경)하리보믹스사워</t>
+  </si>
+  <si>
+    <t>삼경)하리보스타믹스</t>
+  </si>
+  <si>
+    <t>삼경)하리보해피콜라</t>
+  </si>
+  <si>
     <t>삼경)하리보해피콜라사워</t>
   </si>
   <si>
@@ -586,6 +748,18 @@
     <t>피치)포도모양미니젤리</t>
   </si>
   <si>
+    <t>라라스윗)넛티초코바닐라</t>
+  </si>
+  <si>
+    <t>라라스윗)바닐라초코바</t>
+  </si>
+  <si>
+    <t>라라스윗)복숭아요거트바</t>
+  </si>
+  <si>
+    <t>라라스윗)저당바닐라콘</t>
+  </si>
+  <si>
     <t>제니코)치즈파티모짜렐라</t>
   </si>
   <si>
@@ -598,6 +772,9 @@
     <t>농심)새우탕소컵</t>
   </si>
   <si>
+    <t>농심)새우탕큰사발컵</t>
+  </si>
+  <si>
     <t>농심)신라면블랙컵</t>
   </si>
   <si>
@@ -610,6 +787,9 @@
     <t>삼양)불닭볶음면소컵</t>
   </si>
   <si>
+    <t>팔도)짬뽕왕뚜껑</t>
+  </si>
+  <si>
     <t>CJ)햇반흑미밥210g</t>
   </si>
   <si>
@@ -628,6 +808,9 @@
     <t>곽철이)청포도제로190ml</t>
   </si>
   <si>
+    <t>동화)배러애사비P120g</t>
+  </si>
+  <si>
     <t>롯데)핫식스더킹애플캔355</t>
   </si>
   <si>
@@ -637,6 +820,9 @@
     <t>HEYROO미네랄워터P500ml</t>
   </si>
   <si>
+    <t>광동)제주삼다수P2L</t>
+  </si>
+  <si>
     <t>동서)스타벅스돌체캔275ml</t>
   </si>
   <si>
@@ -652,9 +838,15 @@
     <t>매일)바리스타쇼콜라325ml</t>
   </si>
   <si>
+    <t>미루꾸)플랫그레이라떼</t>
+  </si>
+  <si>
     <t>브리티시)블랙아메P500ml</t>
   </si>
   <si>
+    <t>스벅)셀렉트바닐라라떼300</t>
+  </si>
+  <si>
     <t>코카)조지아라떼P470ml</t>
   </si>
   <si>
@@ -664,6 +856,18 @@
     <t>롯데)실론티제로P500ml</t>
   </si>
   <si>
+    <t>롯데)펩시제로라임P500ml</t>
+  </si>
+  <si>
+    <t>롯데)펩시제로모히토P500</t>
+  </si>
+  <si>
+    <t>롯데)펩시콜라P600ml</t>
+  </si>
+  <si>
+    <t>코카)스프라이트P500ml</t>
+  </si>
+  <si>
     <t>코카)환타오렌지P600ml</t>
   </si>
   <si>
@@ -709,6 +913,9 @@
     <t>동양)아이스웰얼음1kg</t>
   </si>
   <si>
+    <t>오리온맥주캔500ml</t>
+  </si>
+  <si>
     <t>카스캔500ml</t>
   </si>
   <si>
@@ -727,6 +934,12 @@
     <t>국순당)쌀막걸리750ml</t>
   </si>
   <si>
+    <t>장수)생막걸리영등포750ml</t>
+  </si>
+  <si>
+    <t>종량(가정)20L</t>
+  </si>
+  <si>
     <t>CU프렌즈)장우산네이비65</t>
   </si>
   <si>
@@ -740,6 +953,9 @@
   </si>
   <si>
     <t>레종프렌치아이스블랑2mg</t>
+  </si>
+  <si>
+    <t>말보로비스타썸머스플래시</t>
   </si>
   <si>
     <t>메비우스LBS옐로슬림1mg</t>
@@ -1130,7 +1346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1170,19 +1386,19 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1191,21 +1407,21 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1228,13 +1444,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1249,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1257,13 +1473,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1278,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1286,13 +1502,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1315,13 +1531,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1341,22 +1557,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1370,22 +1586,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1399,16 +1615,16 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1423,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1431,13 +1647,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1457,22 +1673,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1486,22 +1702,22 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1518,19 +1734,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1539,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1547,19 +1763,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1573,22 +1789,22 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1597,21 +1813,21 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1626,27 +1842,27 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1655,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1663,19 +1879,19 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1684,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1692,13 +1908,13 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1713,21 +1929,21 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1742,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1750,13 +1966,13 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1771,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1779,19 +1995,19 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1800,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1808,13 +2024,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1829,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1837,16 +2053,16 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1858,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1866,13 +2082,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1887,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1895,13 +2111,13 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1916,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1924,13 +2140,13 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1945,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1953,13 +2169,13 @@
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1974,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1982,13 +2198,13 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2003,21 +2219,21 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2032,21 +2248,21 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2061,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2069,13 +2285,13 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2090,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2098,13 +2314,13 @@
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2119,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2127,13 +2343,13 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2148,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2156,13 +2372,13 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2177,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2185,16 +2401,16 @@
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2206,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2214,13 +2430,13 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2235,27 +2451,27 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2264,27 +2480,27 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2293,21 +2509,21 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2327,16 +2543,16 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2351,21 +2567,21 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2380,21 +2596,21 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2409,53 +2625,53 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2467,24 +2683,24 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2501,19 +2717,19 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2525,21 +2741,21 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D49" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2554,24 +2770,24 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D50" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2583,24 +2799,24 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2612,53 +2828,53 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>2</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2670,24 +2886,24 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D54" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2699,24 +2915,24 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D55" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2728,24 +2944,24 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D56" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2757,24 +2973,24 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D57" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2786,21 +3002,21 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2815,27 +3031,27 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2844,27 +3060,27 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2878,16 +3094,16 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D61" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2902,27 +3118,27 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D62" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2931,24 +3147,24 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D63" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2960,21 +3176,21 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D64" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -2989,27 +3205,27 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
         <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D65" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -3023,22 +3239,22 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
         <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -3047,24 +3263,24 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B67" t="s">
         <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D67" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3076,27 +3292,27 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D68" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3105,21 +3321,21 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B69" t="s">
         <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D69" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -3134,21 +3350,21 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D70" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3163,56 +3379,56 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D71" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
         <v>62</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D72" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3221,24 +3437,24 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D73" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3250,24 +3466,24 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D74" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3279,24 +3495,24 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D75" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -3308,24 +3524,24 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D76" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3337,21 +3553,21 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D77" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3366,24 +3582,24 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D78" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3395,24 +3611,24 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C79" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D79" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3424,21 +3640,21 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C80" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D80" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3453,27 +3669,27 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D81" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -3482,21 +3698,21 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D82" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3511,21 +3727,21 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D83" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3540,24 +3756,24 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C84" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D84" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3569,21 +3785,21 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C85" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D85" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="E85">
         <v>3</v>
@@ -3598,27 +3814,27 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C86" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D86" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="E86">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3627,24 +3843,24 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C87" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D87" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -3656,27 +3872,27 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D88" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="E88">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3690,16 +3906,16 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C89" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D89" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3714,27 +3930,27 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D90" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3743,21 +3959,21 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
         <v>67</v>
       </c>
       <c r="C91" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D91" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3772,24 +3988,24 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B92" t="s">
         <v>67</v>
       </c>
       <c r="C92" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D92" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -3801,32 +4017,960 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" t="s">
+        <v>168</v>
+      </c>
+      <c r="D93" t="s">
+        <v>292</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94" t="s">
+        <v>293</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95" t="s">
+        <v>294</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" t="s">
+        <v>171</v>
+      </c>
+      <c r="D96" t="s">
+        <v>295</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" t="s">
+        <v>296</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" t="s">
+        <v>173</v>
+      </c>
+      <c r="D98" t="s">
+        <v>297</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" t="s">
+        <v>174</v>
+      </c>
+      <c r="D99" t="s">
+        <v>298</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100" t="s">
+        <v>175</v>
+      </c>
+      <c r="D100" t="s">
+        <v>299</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101" t="s">
+        <v>69</v>
+      </c>
+      <c r="C101" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101" t="s">
+        <v>300</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" t="s">
+        <v>70</v>
+      </c>
+      <c r="C102" t="s">
+        <v>177</v>
+      </c>
+      <c r="D102" t="s">
+        <v>301</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" t="s">
+        <v>70</v>
+      </c>
+      <c r="C103" t="s">
+        <v>178</v>
+      </c>
+      <c r="D103" t="s">
+        <v>302</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>36</v>
+      </c>
+      <c r="B104" t="s">
+        <v>70</v>
+      </c>
+      <c r="C104" t="s">
+        <v>179</v>
+      </c>
+      <c r="D104" t="s">
+        <v>303</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" t="s">
+        <v>180</v>
+      </c>
+      <c r="D105" t="s">
+        <v>304</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" t="s">
+        <v>181</v>
+      </c>
+      <c r="D106" t="s">
+        <v>305</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107" t="s">
+        <v>182</v>
+      </c>
+      <c r="D107" t="s">
+        <v>306</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
         <v>38</v>
       </c>
-      <c r="B93" t="s">
-        <v>68</v>
-      </c>
-      <c r="C93" t="s">
-        <v>160</v>
-      </c>
-      <c r="D93" t="s">
-        <v>252</v>
-      </c>
-      <c r="E93">
+      <c r="B108" t="s">
+        <v>72</v>
+      </c>
+      <c r="C108" t="s">
+        <v>183</v>
+      </c>
+      <c r="D108" t="s">
+        <v>307</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" t="s">
+        <v>73</v>
+      </c>
+      <c r="C109" t="s">
+        <v>184</v>
+      </c>
+      <c r="D109" t="s">
+        <v>308</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110" t="s">
+        <v>185</v>
+      </c>
+      <c r="D110" t="s">
+        <v>309</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111" t="s">
+        <v>74</v>
+      </c>
+      <c r="C111" t="s">
+        <v>186</v>
+      </c>
+      <c r="D111" t="s">
+        <v>310</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>40</v>
+      </c>
+      <c r="B112" t="s">
+        <v>74</v>
+      </c>
+      <c r="C112" t="s">
+        <v>187</v>
+      </c>
+      <c r="D112" t="s">
+        <v>311</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>40</v>
+      </c>
+      <c r="B113" t="s">
+        <v>74</v>
+      </c>
+      <c r="C113" t="s">
+        <v>188</v>
+      </c>
+      <c r="D113" t="s">
+        <v>312</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
         <v>4</v>
       </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>40</v>
+      </c>
+      <c r="B114" t="s">
+        <v>74</v>
+      </c>
+      <c r="C114" t="s">
+        <v>189</v>
+      </c>
+      <c r="D114" t="s">
+        <v>313</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>40</v>
+      </c>
+      <c r="B115" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115" t="s">
+        <v>190</v>
+      </c>
+      <c r="D115" t="s">
+        <v>314</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>40</v>
+      </c>
+      <c r="B116" t="s">
+        <v>74</v>
+      </c>
+      <c r="C116" t="s">
+        <v>191</v>
+      </c>
+      <c r="D116" t="s">
+        <v>315</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>40</v>
+      </c>
+      <c r="B117" t="s">
+        <v>74</v>
+      </c>
+      <c r="C117" t="s">
+        <v>192</v>
+      </c>
+      <c r="D117" t="s">
+        <v>316</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>41</v>
+      </c>
+      <c r="B118" t="s">
+        <v>75</v>
+      </c>
+      <c r="C118" t="s">
+        <v>193</v>
+      </c>
+      <c r="D118" t="s">
+        <v>317</v>
+      </c>
+      <c r="E118">
+        <v>11</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>41</v>
+      </c>
+      <c r="B119" t="s">
+        <v>75</v>
+      </c>
+      <c r="C119" t="s">
+        <v>194</v>
+      </c>
+      <c r="D119" t="s">
+        <v>318</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>41</v>
+      </c>
+      <c r="B120" t="s">
+        <v>75</v>
+      </c>
+      <c r="C120" t="s">
+        <v>195</v>
+      </c>
+      <c r="D120" t="s">
+        <v>319</v>
+      </c>
+      <c r="E120">
+        <v>10</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>41</v>
+      </c>
+      <c r="B121" t="s">
+        <v>75</v>
+      </c>
+      <c r="C121" t="s">
+        <v>196</v>
+      </c>
+      <c r="D121" t="s">
+        <v>320</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>41</v>
+      </c>
+      <c r="B122" t="s">
+        <v>75</v>
+      </c>
+      <c r="C122" t="s">
+        <v>197</v>
+      </c>
+      <c r="D122" t="s">
+        <v>321</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>41</v>
+      </c>
+      <c r="B123" t="s">
+        <v>75</v>
+      </c>
+      <c r="C123" t="s">
+        <v>198</v>
+      </c>
+      <c r="D123" t="s">
+        <v>322</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>41</v>
+      </c>
+      <c r="B124" t="s">
+        <v>75</v>
+      </c>
+      <c r="C124" t="s">
+        <v>199</v>
+      </c>
+      <c r="D124" t="s">
+        <v>323</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>42</v>
+      </c>
+      <c r="B125" t="s">
+        <v>76</v>
+      </c>
+      <c r="C125" t="s">
+        <v>200</v>
+      </c>
+      <c r="D125" t="s">
+        <v>324</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
         <v>0</v>
       </c>
     </row>

--- a/code_outputs/mid_excel/250717.xlsx
+++ b/code_outputs/mid_excel/250717.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="371">
   <si>
     <t>중분류코드</t>
   </si>
@@ -55,6 +55,9 @@
     <t>004</t>
   </si>
   <si>
+    <t>005</t>
+  </si>
+  <si>
     <t>012</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
     <t>051</t>
   </si>
   <si>
+    <t>057</t>
+  </si>
+  <si>
     <t>060</t>
   </si>
   <si>
@@ -157,6 +163,9 @@
     <t>샌드위치류</t>
   </si>
   <si>
+    <t>햄버거류</t>
+  </si>
+  <si>
     <t>빵</t>
   </si>
   <si>
@@ -232,6 +241,9 @@
     <t>전통주</t>
   </si>
   <si>
+    <t>위생용품</t>
+  </si>
+  <si>
     <t>홈/주방용품</t>
   </si>
   <si>
@@ -262,6 +274,9 @@
     <t>8800279674641</t>
   </si>
   <si>
+    <t>8800279670766</t>
+  </si>
+  <si>
     <t>8800279676607</t>
   </si>
   <si>
@@ -274,9 +289,15 @@
     <t>8801771303244</t>
   </si>
   <si>
+    <t>8800271902957</t>
+  </si>
+  <si>
     <t>8800279671817</t>
   </si>
   <si>
+    <t>8800279677666</t>
+  </si>
+  <si>
     <t>8809895795303</t>
   </si>
   <si>
@@ -289,6 +310,9 @@
     <t>8801068933826</t>
   </si>
   <si>
+    <t>8801068931839</t>
+  </si>
+  <si>
     <t>8801068406832</t>
   </si>
   <si>
@@ -310,6 +334,12 @@
     <t>8809304881023</t>
   </si>
   <si>
+    <t>8801204009743</t>
+  </si>
+  <si>
+    <t>8801204004946</t>
+  </si>
+  <si>
     <t>9557062361828</t>
   </si>
   <si>
@@ -325,6 +355,9 @@
     <t>8801043005814</t>
   </si>
   <si>
+    <t>8801728106270</t>
+  </si>
+  <si>
     <t>8802259022893</t>
   </si>
   <si>
@@ -364,6 +397,9 @@
     <t>8437004492838</t>
   </si>
   <si>
+    <t>4000512008903</t>
+  </si>
+  <si>
     <t>8436556395932</t>
   </si>
   <si>
@@ -379,6 +415,9 @@
     <t>8809599361309</t>
   </si>
   <si>
+    <t>8809599361057</t>
+  </si>
+  <si>
     <t>8809599360470</t>
   </si>
   <si>
@@ -388,6 +427,12 @@
     <t>8809599361033</t>
   </si>
   <si>
+    <t>8801206004975</t>
+  </si>
+  <si>
+    <t>8809265023036</t>
+  </si>
+  <si>
     <t>8809136851096</t>
   </si>
   <si>
@@ -415,6 +460,15 @@
     <t>8801073210776</t>
   </si>
   <si>
+    <t>8801073102538</t>
+  </si>
+  <si>
+    <t>8801045571638</t>
+  </si>
+  <si>
+    <t>8809695253652</t>
+  </si>
+  <si>
     <t>8801128503488</t>
   </si>
   <si>
@@ -436,6 +490,9 @@
     <t>8801753113205</t>
   </si>
   <si>
+    <t>8801121043561</t>
+  </si>
+  <si>
     <t>8806016186156</t>
   </si>
   <si>
@@ -496,6 +553,9 @@
     <t>8801094202606</t>
   </si>
   <si>
+    <t>8801094013004</t>
+  </si>
+  <si>
     <t>8801094112707</t>
   </si>
   <si>
@@ -544,6 +604,9 @@
     <t>4962656135016</t>
   </si>
   <si>
+    <t>8801858048167</t>
+  </si>
+  <si>
     <t>8801858011024</t>
   </si>
   <si>
@@ -565,6 +628,12 @@
     <t>8809065655116</t>
   </si>
   <si>
+    <t>8801166234122</t>
+  </si>
+  <si>
+    <t>8801166230476</t>
+  </si>
+  <si>
     <t>2200000079947</t>
   </si>
   <si>
@@ -592,6 +661,12 @@
     <t>0000088020792</t>
   </si>
   <si>
+    <t>8801116003907</t>
+  </si>
+  <si>
+    <t>8801116015887</t>
+  </si>
+  <si>
     <t>0000088021997</t>
   </si>
   <si>
@@ -634,6 +709,9 @@
     <t>주)뉴전주비빔소불고기1</t>
   </si>
   <si>
+    <t>주)압도적태양초전주비빔1</t>
+  </si>
+  <si>
     <t>김)압도적뉴참치마요1</t>
   </si>
   <si>
@@ -646,9 +724,15 @@
     <t>김)화끈불제육김밥1</t>
   </si>
   <si>
+    <t>샌)감자치즈베이컨샌드1</t>
+  </si>
+  <si>
     <t>샌)급식대가계란샌드1</t>
   </si>
   <si>
+    <t>햄)트로피칼비프버거1</t>
+  </si>
+  <si>
     <t>405)딸기잼크림소보로빵</t>
   </si>
   <si>
@@ -661,6 +745,9 @@
     <t>삼립)미각카이막치즈케익</t>
   </si>
   <si>
+    <t>삼립)순백우유식빵</t>
+  </si>
+  <si>
     <t>삼립)신선가득꿀호떡</t>
   </si>
   <si>
@@ -682,6 +769,12 @@
     <t>위너스)프레첼체다치즈</t>
   </si>
   <si>
+    <t>청우)자색군고구마스틱80g</t>
+  </si>
+  <si>
+    <t>청우)참깨스틱85g</t>
+  </si>
+  <si>
     <t>HEYROO감자칩득템어니언</t>
   </si>
   <si>
@@ -697,6 +790,9 @@
     <t>농심)포테토칩60g</t>
   </si>
   <si>
+    <t>대산)전통뻥튀기180g</t>
+  </si>
+  <si>
     <t>롯데)베지5발사믹허브50g</t>
   </si>
   <si>
@@ -736,6 +832,9 @@
     <t>스위트)트롤리계란후라이</t>
   </si>
   <si>
+    <t>스위트)트롤리버거XXL</t>
+  </si>
+  <si>
     <t>스위트)트롤리키스</t>
   </si>
   <si>
@@ -751,6 +850,9 @@
     <t>라라스윗)넛티초코바닐라</t>
   </si>
   <si>
+    <t>라라스윗)딸기요거트바</t>
+  </si>
+  <si>
     <t>라라스윗)바닐라초코바</t>
   </si>
   <si>
@@ -760,6 +862,12 @@
     <t>라라스윗)저당바닐라콘</t>
   </si>
   <si>
+    <t>서주)400바멜론</t>
+  </si>
+  <si>
+    <t>고래사)크랩말이90g</t>
+  </si>
+  <si>
     <t>제니코)치즈파티모짜렐라</t>
   </si>
   <si>
@@ -787,6 +895,15 @@
     <t>삼양)불닭볶음면소컵</t>
   </si>
   <si>
+    <t>삼양)삼양라면</t>
+  </si>
+  <si>
+    <t>오뚜기)진라면매운컵</t>
+  </si>
+  <si>
+    <t>팔도)볼케이노까르보용기</t>
+  </si>
+  <si>
     <t>팔도)짬뽕왕뚜껑</t>
   </si>
   <si>
@@ -808,6 +925,9 @@
     <t>곽철이)청포도제로190ml</t>
   </si>
   <si>
+    <t>매일)피크닉사과240ml</t>
+  </si>
+  <si>
     <t>동화)배러애사비P120g</t>
   </si>
   <si>
@@ -868,6 +988,9 @@
     <t>코카)스프라이트P500ml</t>
   </si>
   <si>
+    <t>코카)코카콜라캔250ml</t>
+  </si>
+  <si>
     <t>코카)환타오렌지P600ml</t>
   </si>
   <si>
@@ -916,6 +1039,9 @@
     <t>오리온맥주캔500ml</t>
   </si>
   <si>
+    <t>카스레몬스퀴즈7.0캔500ml</t>
+  </si>
+  <si>
     <t>카스캔500ml</t>
   </si>
   <si>
@@ -937,6 +1063,12 @@
     <t>장수)생막걸리영등포750ml</t>
   </si>
   <si>
+    <t>좋은)순면수퍼롱10P</t>
+  </si>
+  <si>
+    <t>좋은)입는오버나이트L4P</t>
+  </si>
+  <si>
     <t>종량(가정)20L</t>
   </si>
   <si>
@@ -962,6 +1094,12 @@
   </si>
   <si>
     <t>메비우스LSS1㎎</t>
+  </si>
+  <si>
+    <t>보헴시가쿠바나더블6mg</t>
+  </si>
+  <si>
+    <t>에쎄체인지프로즌</t>
   </si>
   <si>
     <t>켄트스위치1mg신</t>
@@ -1346,7 +1484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1386,13 +1524,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1415,13 +1553,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1444,13 +1582,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1473,13 +1611,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1502,13 +1640,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1528,22 +1666,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1552,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1560,19 +1698,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1589,13 +1727,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1618,13 +1756,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1644,22 +1782,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1673,22 +1811,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1702,16 +1840,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1734,13 +1872,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1755,21 +1893,21 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1789,22 +1927,22 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1818,16 +1956,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1842,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1879,19 +2017,19 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1900,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1908,19 +2046,19 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1934,16 +2072,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1958,27 +2096,27 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1987,21 +2125,21 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2016,21 +2154,21 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2045,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2053,13 +2191,13 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2074,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2082,13 +2220,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2103,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2111,13 +2249,13 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2132,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2140,16 +2278,16 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2161,27 +2299,27 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2190,50 +2328,50 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>254</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" t="s">
-        <v>229</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2248,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2256,13 +2394,13 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2277,21 +2415,21 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2306,21 +2444,21 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2335,21 +2473,21 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2364,21 +2502,21 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2393,21 +2531,21 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2422,21 +2560,21 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2451,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2459,16 +2597,16 @@
         <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2485,16 +2623,16 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2509,21 +2647,21 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2538,21 +2676,21 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2567,21 +2705,21 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2596,24 +2734,24 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2625,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2633,13 +2771,13 @@
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2648,13 +2786,13 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2662,16 +2800,16 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D46" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2683,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2691,16 +2829,16 @@
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2712,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2720,16 +2858,16 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D48" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2741,21 +2879,21 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D49" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2770,24 +2908,24 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2804,16 +2942,16 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D51" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2828,21 +2966,21 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2857,21 +2995,21 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D53" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2880,27 +3018,27 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2915,21 +3053,21 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D55" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2944,24 +3082,24 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D56" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2973,50 +3111,50 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" t="s">
+        <v>281</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <v>21</v>
-      </c>
-      <c r="B57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" t="s">
-        <v>256</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D58" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3031,27 +3169,27 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D59" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3060,27 +3198,27 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
         <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D60" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3089,24 +3227,24 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3118,21 +3256,21 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3147,53 +3285,53 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D63" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>2</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D64" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3205,24 +3343,24 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D65" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3234,24 +3372,24 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D66" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3263,24 +3401,24 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3292,21 +3430,21 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3321,24 +3459,24 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3350,21 +3488,21 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D70" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3379,21 +3517,21 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D71" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3408,21 +3546,21 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D72" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3437,27 +3575,27 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D73" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -3466,27 +3604,27 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D74" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3495,24 +3633,24 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D75" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -3524,24 +3662,24 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D76" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3553,24 +3691,24 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B77" t="s">
         <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D77" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3587,48 +3725,48 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B78" t="s">
         <v>62</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D78" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>4</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C79" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D79" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3640,24 +3778,24 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B80" t="s">
         <v>63</v>
       </c>
       <c r="C80" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D80" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3669,24 +3807,24 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D81" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -3698,24 +3836,24 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D82" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3727,24 +3865,24 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
         <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D83" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3756,21 +3894,21 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
         <v>64</v>
       </c>
       <c r="C84" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D84" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -3785,24 +3923,24 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C85" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D85" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -3814,21 +3952,21 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B86" t="s">
         <v>65</v>
       </c>
       <c r="C86" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D86" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3843,21 +3981,21 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B87" t="s">
         <v>65</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D87" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3872,24 +4010,24 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C88" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D88" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -3901,24 +4039,24 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C89" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D89" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -3930,27 +4068,27 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C90" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D90" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="E90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3959,24 +4097,24 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C91" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D91" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -3988,24 +4126,24 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C92" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D92" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -4017,27 +4155,27 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B93" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C93" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D93" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -4046,27 +4184,27 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D94" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -4075,21 +4213,21 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D95" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -4104,27 +4242,27 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B96" t="s">
         <v>67</v>
       </c>
       <c r="C96" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D96" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -4133,24 +4271,24 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C97" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D97" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4162,21 +4300,21 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C98" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D98" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -4191,53 +4329,53 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B99" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C99" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D99" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B100" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C100" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D100" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="E100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -4249,27 +4387,27 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B101" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C101" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D101" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="E101">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -4278,21 +4416,21 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B102" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C102" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D102" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -4307,24 +4445,24 @@
         <v>0</v>
       </c>
       <c r="I102">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B103" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C103" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D103" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="E103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4336,21 +4474,21 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C104" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D104" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -4365,21 +4503,21 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B105" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C105" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D105" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -4394,27 +4532,27 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B106" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C106" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D106" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -4423,24 +4561,24 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B107" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C107" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D107" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="E107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -4452,21 +4590,21 @@
         <v>0</v>
       </c>
       <c r="I107">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B108" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C108" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D108" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -4481,27 +4619,27 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B109" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C109" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D109" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -4510,27 +4648,27 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B110" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C110" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D110" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -4539,24 +4677,24 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B111" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C111" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D111" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -4565,27 +4703,27 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B112" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C112" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D112" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -4597,24 +4735,24 @@
         <v>0</v>
       </c>
       <c r="I112">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B113" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C113" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D113" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -4626,21 +4764,21 @@
         <v>0</v>
       </c>
       <c r="I113">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B114" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C114" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D114" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -4660,48 +4798,48 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B115" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C115" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D115" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B116" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C116" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D116" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -4713,24 +4851,24 @@
         <v>0</v>
       </c>
       <c r="I116">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B117" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C117" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D117" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="E117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -4742,27 +4880,27 @@
         <v>0</v>
       </c>
       <c r="I117">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B118" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C118" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D118" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="E118">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4771,21 +4909,21 @@
         <v>0</v>
       </c>
       <c r="I118">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B119" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C119" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D119" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -4800,27 +4938,27 @@
         <v>0</v>
       </c>
       <c r="I119">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B120" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C120" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D120" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="E120">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4829,21 +4967,21 @@
         <v>0</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B121" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C121" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D121" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -4858,24 +4996,24 @@
         <v>0</v>
       </c>
       <c r="I121">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B122" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C122" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D122" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="E122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -4887,21 +5025,21 @@
         <v>0</v>
       </c>
       <c r="I122">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B123" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C123" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D123" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -4916,24 +5054,24 @@
         <v>0</v>
       </c>
       <c r="I123">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B124" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C124" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D124" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -4945,32 +5083,641 @@
         <v>0</v>
       </c>
       <c r="I124">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
+        <v>39</v>
+      </c>
+      <c r="B125" t="s">
+        <v>75</v>
+      </c>
+      <c r="C125" t="s">
+        <v>204</v>
+      </c>
+      <c r="D125" t="s">
+        <v>349</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>39</v>
+      </c>
+      <c r="B126" t="s">
+        <v>75</v>
+      </c>
+      <c r="C126" t="s">
+        <v>205</v>
+      </c>
+      <c r="D126" t="s">
+        <v>350</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>40</v>
+      </c>
+      <c r="B127" t="s">
+        <v>76</v>
+      </c>
+      <c r="C127" t="s">
+        <v>206</v>
+      </c>
+      <c r="D127" t="s">
+        <v>351</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>41</v>
+      </c>
+      <c r="B128" t="s">
+        <v>77</v>
+      </c>
+      <c r="C128" t="s">
+        <v>207</v>
+      </c>
+      <c r="D128" t="s">
+        <v>352</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>41</v>
+      </c>
+      <c r="B129" t="s">
+        <v>77</v>
+      </c>
+      <c r="C129" t="s">
+        <v>208</v>
+      </c>
+      <c r="D129" t="s">
+        <v>353</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
         <v>42</v>
       </c>
-      <c r="B125" t="s">
-        <v>76</v>
-      </c>
-      <c r="C125" t="s">
-        <v>200</v>
-      </c>
-      <c r="D125" t="s">
-        <v>324</v>
-      </c>
-      <c r="E125">
+      <c r="B130" t="s">
+        <v>78</v>
+      </c>
+      <c r="C130" t="s">
+        <v>209</v>
+      </c>
+      <c r="D130" t="s">
+        <v>354</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>42</v>
+      </c>
+      <c r="B131" t="s">
+        <v>78</v>
+      </c>
+      <c r="C131" t="s">
+        <v>210</v>
+      </c>
+      <c r="D131" t="s">
+        <v>355</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>42</v>
+      </c>
+      <c r="B132" t="s">
+        <v>78</v>
+      </c>
+      <c r="C132" t="s">
+        <v>211</v>
+      </c>
+      <c r="D132" t="s">
+        <v>356</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
         <v>4</v>
       </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>42</v>
+      </c>
+      <c r="B133" t="s">
+        <v>78</v>
+      </c>
+      <c r="C133" t="s">
+        <v>212</v>
+      </c>
+      <c r="D133" t="s">
+        <v>357</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>42</v>
+      </c>
+      <c r="B134" t="s">
+        <v>78</v>
+      </c>
+      <c r="C134" t="s">
+        <v>213</v>
+      </c>
+      <c r="D134" t="s">
+        <v>358</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>42</v>
+      </c>
+      <c r="B135" t="s">
+        <v>78</v>
+      </c>
+      <c r="C135" t="s">
+        <v>214</v>
+      </c>
+      <c r="D135" t="s">
+        <v>359</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>42</v>
+      </c>
+      <c r="B136" t="s">
+        <v>78</v>
+      </c>
+      <c r="C136" t="s">
+        <v>215</v>
+      </c>
+      <c r="D136" t="s">
+        <v>360</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>42</v>
+      </c>
+      <c r="B137" t="s">
+        <v>78</v>
+      </c>
+      <c r="C137" t="s">
+        <v>216</v>
+      </c>
+      <c r="D137" t="s">
+        <v>361</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>42</v>
+      </c>
+      <c r="B138" t="s">
+        <v>78</v>
+      </c>
+      <c r="C138" t="s">
+        <v>217</v>
+      </c>
+      <c r="D138" t="s">
+        <v>362</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>43</v>
+      </c>
+      <c r="B139" t="s">
+        <v>79</v>
+      </c>
+      <c r="C139" t="s">
+        <v>218</v>
+      </c>
+      <c r="D139" t="s">
+        <v>363</v>
+      </c>
+      <c r="E139">
+        <v>11</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>43</v>
+      </c>
+      <c r="B140" t="s">
+        <v>79</v>
+      </c>
+      <c r="C140" t="s">
+        <v>219</v>
+      </c>
+      <c r="D140" t="s">
+        <v>364</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>43</v>
+      </c>
+      <c r="B141" t="s">
+        <v>79</v>
+      </c>
+      <c r="C141" t="s">
+        <v>220</v>
+      </c>
+      <c r="D141" t="s">
+        <v>365</v>
+      </c>
+      <c r="E141">
+        <v>10</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" t="s">
+        <v>79</v>
+      </c>
+      <c r="C142" t="s">
+        <v>221</v>
+      </c>
+      <c r="D142" t="s">
+        <v>366</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>43</v>
+      </c>
+      <c r="B143" t="s">
+        <v>79</v>
+      </c>
+      <c r="C143" t="s">
+        <v>222</v>
+      </c>
+      <c r="D143" t="s">
+        <v>367</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>43</v>
+      </c>
+      <c r="B144" t="s">
+        <v>79</v>
+      </c>
+      <c r="C144" t="s">
+        <v>223</v>
+      </c>
+      <c r="D144" t="s">
+        <v>368</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>43</v>
+      </c>
+      <c r="B145" t="s">
+        <v>79</v>
+      </c>
+      <c r="C145" t="s">
+        <v>224</v>
+      </c>
+      <c r="D145" t="s">
+        <v>369</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>44</v>
+      </c>
+      <c r="B146" t="s">
+        <v>80</v>
+      </c>
+      <c r="C146" t="s">
+        <v>225</v>
+      </c>
+      <c r="D146" t="s">
+        <v>370</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
         <v>0</v>
       </c>
     </row>
